--- a/target/test-classes/ExcelFiles/ScenarioStatus.xlsx
+++ b/target/test-classes/ExcelFiles/ScenarioStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resul\IdeaProjects\DemoqaUITestingCucumber\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0490C8-A49B-4770-A742-55251E985F1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F83E8B-B2D7-495B-8783-C84C45708E1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="50">
   <si>
     <t>Assign</t>
   </si>
@@ -67,214 +67,109 @@
     <t>firefox</t>
   </si>
   <si>
-    <t>2023-09-28 17:33:16</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:33:30</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:33:42</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:33:54</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:34:08</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:34:21</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:34:32</t>
-  </si>
-  <si>
     <t>edge</t>
   </si>
   <si>
-    <t>2023-09-28 17:35:05</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:35:16</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:35:26</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:35:36</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:35:48</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:36:00</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:36:11</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:36:38</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:36:46</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:36:55</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:37:05</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:37:16</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:37:26</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:37:35</t>
+    <t>2023-09-28 17:50:16</t>
+  </si>
+  <si>
+    <t>2023-09-28 17:50:23</t>
+  </si>
+  <si>
+    <t>2023-09-28 17:50:31</t>
+  </si>
+  <si>
+    <t>2023-09-28 17:50:39</t>
+  </si>
+  <si>
+    <t>2023-09-28 17:50:52</t>
+  </si>
+  <si>
+    <t>2023-09-28 17:51:01</t>
+  </si>
+  <si>
+    <t>2023-09-28 17:51:10</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:02:37</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:02:45</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:02:54</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:03:03</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:03:15</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:03:27</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:03:36</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:11:47</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:11:58</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:12:10</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:12:22</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:12:34</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:12:46</t>
+  </si>
+  <si>
+    <t>2023-09-28 18:12:58</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:14:49</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:14:57</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:15:03</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:15:13</t>
   </si>
   <si>
     <t>FAILED</t>
   </si>
   <si>
-    <t>2023-09-28 17:46:28</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:46:36</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:46:43</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:46:55</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:47:04</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:47:12</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:47:18</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:48:40</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:49:20</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:50:16</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:50:23</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:50:31</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:50:39</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:50:52</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:51:01</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:51:10</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:51:40</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:51:49</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:52:00</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:52:10</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:52:22</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:52:52</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:53:03</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:55:02</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:57:06</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:58:26</t>
-  </si>
-  <si>
-    <t>2023-09-28 17:58:58</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:01:57</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:02:09</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:02:37</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:02:45</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:02:54</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:03:03</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:03:15</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:03:27</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:03:36</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:05:18</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:05:29</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:05:40</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:05:52</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:06:07</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:06:18</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:06:30</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:08:06</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:09:37</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:10:23</t>
-  </si>
-  <si>
-    <t>2023-09-28 18:11:09</t>
+    <t>2023-10-09 00:15:36</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:15:58</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:16:02</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:16:03</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:16:04</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:18:04</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:18:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 00:18:35</t>
   </si>
 </sst>
 </file>
@@ -639,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,10 +577,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,10 +594,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -716,10 +611,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,10 +628,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,10 +662,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,10 +679,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -818,7 +713,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -835,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -852,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -869,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -886,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -903,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -920,7 +815,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -937,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>31</v>
@@ -954,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -971,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -988,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
@@ -1005,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
@@ -1022,7 +917,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -1036,13 +931,13 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -1053,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -1070,13 +965,13 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -1087,13 +982,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -1104,7 +999,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -1121,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1138,13 +1033,13 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
@@ -1152,16 +1047,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1169,16 +1064,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32">
@@ -1186,16 +1081,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -1203,16 +1098,16 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34">
@@ -1220,16 +1115,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
@@ -1237,16 +1132,16 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -1254,16 +1149,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
@@ -1271,16 +1166,16 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
@@ -1288,16 +1183,16 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
@@ -1305,16 +1200,16 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
@@ -1322,16 +1217,16 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
@@ -1339,16 +1234,16 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -1356,16 +1251,16 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -1373,16 +1268,16 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -1390,16 +1285,16 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
@@ -1413,10 +1308,10 @@
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
@@ -1424,407 +1319,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
